--- a/Output/PADMASALI.xlsx
+++ b/Output/PADMASALI.xlsx
@@ -1693,7 +1693,7 @@
         <v>5.56447e+18</v>
       </c>
       <c r="T15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -3310,7 +3310,7 @@
         <v>5.56447e+18</v>
       </c>
       <c r="T12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -4695,7 +4695,11 @@
       <c r="T2" t="n">
         <v>31</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
